--- a/_site/Data/StandAloneQuestionsCC.xlsx
+++ b/_site/Data/StandAloneQuestionsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>In the past two weeks, how many times did your employer or child care program cancel/close for any reason (e.g., not enough staff, COVID-19 exposure, other)?</t>
@@ -54,7 +54,7 @@
     <t>Drop down number options</t>
   </si>
   <si>
-    <t>32, 36</t>
+    <t>09/29/2021-10/01/2021 10/26/2021-11/01/2021</t>
   </si>
   <si>
     <t>Please rate your level of agreement with the following statements:
@@ -73,7 +73,7 @@
     <t>RAPID team</t>
   </si>
   <si>
-    <t>36</t>
+    <t>10/26/2021-11/01/2021</t>
   </si>
   <si>
     <t>● I am concerned about the Delta variant
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Open-ended</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1541,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="213" customHeight="1">

--- a/_site/Data/StandAloneQuestionsCC.xlsx
+++ b/_site/Data/StandAloneQuestionsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Question</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Open-ended</t>
-  </si>
-  <si>
-    <t>36</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1456,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1544,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="213" customHeight="1">

--- a/_site/Data/StandAloneQuestionsCC.xlsx
+++ b/_site/Data/StandAloneQuestionsCC.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgELG0isFbVDdbwoNvZDX0yWbMRew=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjBKFhP3L/bAz7fP/JosaX9f/4jTA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Drop down number options</t>
+  </si>
+  <si>
+    <t>RAPID Team</t>
   </si>
   <si>
     <t>09/29/2021-10/01/2021 10/26/2021-11/01/2021</t>
@@ -205,11 +208,11 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -503,10 +506,12 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -531,18 +536,18 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
+      <c r="A3" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -568,17 +573,17 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -604,17 +609,17 @@
     </row>
     <row r="5" ht="169.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
